--- a/TPs/TP1/TABLA20/AG_TP1_Ruleta_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA20/AG_TP1_Ruleta_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521223316960383</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C2">
-        <v>0.0007721069122088128</v>
+        <v>0.007332506421495208</v>
       </c>
       <c r="D2">
-        <v>0.296629622571928</v>
+        <v>0.161185543189924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6521727570809137</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C3">
-        <v>0.05930894201041972</v>
+        <v>0.2380062948115324</v>
       </c>
       <c r="D3">
-        <v>0.4783388919083432</v>
+        <v>0.341914468885246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6569132081466758</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C4">
-        <v>0.08689976314504715</v>
+        <v>0.2380095061964104</v>
       </c>
       <c r="D4">
-        <v>0.5561664305138303</v>
+        <v>0.3356915623970232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8695244839135509</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C5">
-        <v>0.4657830025930364</v>
+        <v>0.03196234230801369</v>
       </c>
       <c r="D5">
-        <v>0.646044944653257</v>
+        <v>0.3642520147914118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8697521627377603</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C6">
-        <v>0.5376764199878384</v>
+        <v>0.2380090409350068</v>
       </c>
       <c r="D6">
-        <v>0.6981000294495525</v>
+        <v>0.5484982026161151</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8695244943348601</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C7">
-        <v>0.6520287329286408</v>
+        <v>0.2380095061964104</v>
       </c>
       <c r="D7">
-        <v>0.7053734183307353</v>
+        <v>0.8789514140640916</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8695246923397486</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C8">
-        <v>0.6504533375827277</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D8">
-        <v>0.7251478369413195</v>
+        <v>0.9758716866265958</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9899920389791916</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C9">
-        <v>0.6504525864648857</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D9">
-        <v>0.7653968266364328</v>
+        <v>0.9758716866265958</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9899920389791916</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C10">
-        <v>0.6520041057773479</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D10">
-        <v>0.7800481980061521</v>
+        <v>0.9758716866265958</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9899920426857938</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C11">
-        <v>0.6520287479691831</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D11">
-        <v>0.7932766837910794</v>
+        <v>0.9758716866265958</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9899920500989982</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C12">
-        <v>0.7551721375908359</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D12">
-        <v>0.8495246312754693</v>
+        <v>0.9758716866265958</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9899920500989982</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C13">
-        <v>0.7551688128862194</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D13">
-        <v>0.9197154699326863</v>
+        <v>0.9758716855225739</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9899920500989982</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="C14">
-        <v>0.2450081317742974</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D14">
-        <v>0.9152932162560811</v>
+        <v>0.9758716847865591</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9899920612188047</v>
+        <v>0.99136806465028</v>
       </c>
       <c r="C15">
-        <v>0.9890206175894082</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D15">
-        <v>0.9898798414728154</v>
+        <v>0.977421322956935</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9899910937958698</v>
+        <v>0.99136806465028</v>
       </c>
       <c r="C16">
-        <v>0.2445254599815861</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D16">
-        <v>0.9149528669147612</v>
+        <v>0.9774215124808059</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9899920426857938</v>
+        <v>0.99136806465028</v>
       </c>
       <c r="C17">
-        <v>0.9287812211422367</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D17">
-        <v>0.9772601609484445</v>
+        <v>0.9789713387030232</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9899910937958698</v>
+        <v>0.9913699674591081</v>
       </c>
       <c r="C18">
-        <v>0.9287812283226069</v>
+        <v>0.2456933860681877</v>
       </c>
       <c r="D18">
-        <v>0.9829804593477192</v>
+        <v>0.9075031479483983</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9968018066811261</v>
+        <v>0.9913680683594572</v>
       </c>
       <c r="C19">
-        <v>0.8695244734922416</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D19">
-        <v>0.9721152391790806</v>
+        <v>0.978971149918077</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9968044176513952</v>
+        <v>0.9913680683594572</v>
       </c>
       <c r="C20">
-        <v>0.8695220349075986</v>
+        <v>0.9758716829465225</v>
       </c>
       <c r="D20">
-        <v>0.948896685288641</v>
+        <v>0.9789709622342431</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9968044250900617</v>
+        <v>0.9913680683594572</v>
       </c>
       <c r="C21">
-        <v>0.8695220488026582</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D21">
-        <v>0.9617220460591511</v>
+        <v>0.9820702378360695</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9968018066811261</v>
+        <v>0.9913680683594572</v>
       </c>
       <c r="C22">
-        <v>0.8695220488026582</v>
+        <v>0.975871686626596</v>
       </c>
       <c r="D22">
-        <v>0.9663081595835464</v>
+        <v>0.9836198760093555</v>
       </c>
     </row>
   </sheetData>
